--- a/data/pca/factorExposure/factorExposure_2015-09-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0251139507137789</v>
+        <v>0.01896463010699307</v>
       </c>
       <c r="C2">
-        <v>0.03141729243600865</v>
+        <v>-0.04460454601948478</v>
       </c>
       <c r="D2">
-        <v>-0.1277009615377499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1388914307974577</v>
+      </c>
+      <c r="E2">
+        <v>-0.01066588978702524</v>
+      </c>
+      <c r="F2">
+        <v>0.001509802233947196</v>
+      </c>
+      <c r="G2">
+        <v>-0.1077101909319068</v>
+      </c>
+      <c r="H2">
+        <v>0.0001855885928861922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.005395890977165344</v>
+        <v>-0.01051681670527608</v>
       </c>
       <c r="C3">
-        <v>0.05732429375732449</v>
+        <v>-0.04053321431325647</v>
       </c>
       <c r="D3">
-        <v>-0.07669324896668329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.05217328350206733</v>
+      </c>
+      <c r="E3">
+        <v>-0.04605565216643294</v>
+      </c>
+      <c r="F3">
+        <v>0.008858635045676877</v>
+      </c>
+      <c r="G3">
+        <v>-0.1301577840632153</v>
+      </c>
+      <c r="H3">
+        <v>0.02012871342851174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04970259368405446</v>
+        <v>0.04028872963568339</v>
       </c>
       <c r="C4">
-        <v>0.06704398578119135</v>
+        <v>-0.08433357714980269</v>
       </c>
       <c r="D4">
-        <v>-0.13809279747928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1533654015729983</v>
+      </c>
+      <c r="E4">
+        <v>-0.02835326621870378</v>
+      </c>
+      <c r="F4">
+        <v>0.07457938152452823</v>
+      </c>
+      <c r="G4">
+        <v>0.01086182851522837</v>
+      </c>
+      <c r="H4">
+        <v>0.03945783794847773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03195405541138599</v>
+        <v>0.03137372879721171</v>
       </c>
       <c r="C6">
-        <v>0.02362736836366041</v>
+        <v>-0.03311850128538404</v>
       </c>
       <c r="D6">
-        <v>-0.1600415400898907</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1407792484278946</v>
+      </c>
+      <c r="E6">
+        <v>0.02123610015923324</v>
+      </c>
+      <c r="F6">
+        <v>0.05865679615831004</v>
+      </c>
+      <c r="G6">
+        <v>-0.05783959094094445</v>
+      </c>
+      <c r="H6">
+        <v>0.01127723672637235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01670002493124669</v>
+        <v>0.01174456750751177</v>
       </c>
       <c r="C7">
-        <v>0.03098141771553698</v>
+        <v>-0.03802107895134639</v>
       </c>
       <c r="D7">
-        <v>-0.1192372505738721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09938290310726737</v>
+      </c>
+      <c r="E7">
+        <v>0.03424066204692647</v>
+      </c>
+      <c r="F7">
+        <v>0.01877554034498849</v>
+      </c>
+      <c r="G7">
+        <v>-0.05928461334315879</v>
+      </c>
+      <c r="H7">
+        <v>0.03880288004708622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01092077343451684</v>
+        <v>0.003731057907166131</v>
       </c>
       <c r="C8">
-        <v>0.03532035003345469</v>
+        <v>-0.04066860977954258</v>
       </c>
       <c r="D8">
-        <v>-0.08029049256670408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.08249554562742199</v>
+      </c>
+      <c r="E8">
+        <v>0.006252471482815321</v>
+      </c>
+      <c r="F8">
+        <v>0.04865348957335464</v>
+      </c>
+      <c r="G8">
+        <v>-0.07576388260952693</v>
+      </c>
+      <c r="H8">
+        <v>-0.03690444788164385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03829452063630738</v>
+        <v>0.02961271870212682</v>
       </c>
       <c r="C9">
-        <v>0.06004058652597436</v>
+        <v>-0.07283189604488755</v>
       </c>
       <c r="D9">
-        <v>-0.1262906103354228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.128142132013624</v>
+      </c>
+      <c r="E9">
+        <v>-0.01694321925291233</v>
+      </c>
+      <c r="F9">
+        <v>0.04630898688055878</v>
+      </c>
+      <c r="G9">
+        <v>0.009299563698619688</v>
+      </c>
+      <c r="H9">
+        <v>0.03906799529679676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1341166866541322</v>
+        <v>0.1879869325855273</v>
       </c>
       <c r="C10">
-        <v>-0.1858753610044372</v>
+        <v>0.1598721553512313</v>
       </c>
       <c r="D10">
-        <v>-0.006293037857735109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01313963361037844</v>
+      </c>
+      <c r="E10">
+        <v>-0.02903877850416584</v>
+      </c>
+      <c r="F10">
+        <v>0.04727583878596926</v>
+      </c>
+      <c r="G10">
+        <v>0.0256919917639385</v>
+      </c>
+      <c r="H10">
+        <v>-0.05763088282616209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03251744986852398</v>
+        <v>0.02401662968180662</v>
       </c>
       <c r="C11">
-        <v>0.04287156959841536</v>
+        <v>-0.05238921545199145</v>
       </c>
       <c r="D11">
-        <v>-0.05928714600785283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0517866922547966</v>
+      </c>
+      <c r="E11">
+        <v>0.02249818787858697</v>
+      </c>
+      <c r="F11">
+        <v>-0.01323608596477163</v>
+      </c>
+      <c r="G11">
+        <v>-0.02695080342800502</v>
+      </c>
+      <c r="H11">
+        <v>0.03786108106992028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03809344405028257</v>
+        <v>0.02695310945119235</v>
       </c>
       <c r="C12">
-        <v>0.04616337766667831</v>
+        <v>-0.05477951995070432</v>
       </c>
       <c r="D12">
-        <v>-0.07194730705653236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05370808889621372</v>
+      </c>
+      <c r="E12">
+        <v>0.01856372512035908</v>
+      </c>
+      <c r="F12">
+        <v>-0.01973368201860246</v>
+      </c>
+      <c r="G12">
+        <v>-0.02903333723033481</v>
+      </c>
+      <c r="H12">
+        <v>0.06559711558249062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009879500727500665</v>
+        <v>0.01013665196096341</v>
       </c>
       <c r="C13">
-        <v>0.03690349628308538</v>
+        <v>-0.04705120583913101</v>
       </c>
       <c r="D13">
-        <v>-0.1621771404353585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1653980009382647</v>
+      </c>
+      <c r="E13">
+        <v>0.02924144423364847</v>
+      </c>
+      <c r="F13">
+        <v>0.04578118475051254</v>
+      </c>
+      <c r="G13">
+        <v>-0.06502315217501863</v>
+      </c>
+      <c r="H13">
+        <v>0.02521056151822334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002885491040996797</v>
+        <v>0.003054852832780514</v>
       </c>
       <c r="C14">
-        <v>0.02496711335864526</v>
+        <v>-0.02859682930963763</v>
       </c>
       <c r="D14">
-        <v>-0.114042346247093</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1074251283891426</v>
+      </c>
+      <c r="E14">
+        <v>0.0120243634990608</v>
+      </c>
+      <c r="F14">
+        <v>0.01853784515446347</v>
+      </c>
+      <c r="G14">
+        <v>-0.08385439378494215</v>
+      </c>
+      <c r="H14">
+        <v>0.06657949222964658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002805581563297581</v>
+        <v>0.0009138932639933478</v>
       </c>
       <c r="C15">
-        <v>0.006065079753580077</v>
+        <v>-0.01501972415292257</v>
       </c>
       <c r="D15">
-        <v>-0.01287432196682916</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0436298961979731</v>
+      </c>
+      <c r="E15">
+        <v>0.001389497011941454</v>
+      </c>
+      <c r="F15">
+        <v>0.002311260338412551</v>
+      </c>
+      <c r="G15">
+        <v>-0.01853464782145268</v>
+      </c>
+      <c r="H15">
+        <v>0.0009287249238114446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0289917210154336</v>
+        <v>0.02175346376400115</v>
       </c>
       <c r="C16">
-        <v>0.04478682743961456</v>
+        <v>-0.05107803905067929</v>
       </c>
       <c r="D16">
-        <v>-0.07556265773947821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06028713511502221</v>
+      </c>
+      <c r="E16">
+        <v>0.01479062758821576</v>
+      </c>
+      <c r="F16">
+        <v>-0.002231761507026693</v>
+      </c>
+      <c r="G16">
+        <v>-0.03886741565611657</v>
+      </c>
+      <c r="H16">
+        <v>0.05813535792623169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01064518402673968</v>
+        <v>0.005383460297498172</v>
       </c>
       <c r="C19">
-        <v>0.03117333931731399</v>
+        <v>-0.02747666324710088</v>
       </c>
       <c r="D19">
-        <v>-0.1688493000589467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1169756502170953</v>
+      </c>
+      <c r="E19">
+        <v>-0.0236135627453319</v>
+      </c>
+      <c r="F19">
+        <v>0.00485166438460967</v>
+      </c>
+      <c r="G19">
+        <v>-0.05639555775578271</v>
+      </c>
+      <c r="H19">
+        <v>0.0572151572906338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01369412919033648</v>
+        <v>0.01210313875819343</v>
       </c>
       <c r="C20">
-        <v>0.03495598251884117</v>
+        <v>-0.04027869088658281</v>
       </c>
       <c r="D20">
-        <v>-0.1069499917148897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1083806852873391</v>
+      </c>
+      <c r="E20">
+        <v>-0.01163343259381966</v>
+      </c>
+      <c r="F20">
+        <v>0.02831484610501257</v>
+      </c>
+      <c r="G20">
+        <v>-0.0534808866793347</v>
+      </c>
+      <c r="H20">
+        <v>0.04573292363276523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.009366079324402778</v>
+        <v>0.004335670503160805</v>
       </c>
       <c r="C21">
-        <v>0.03619171775341527</v>
+        <v>-0.04347612973311248</v>
       </c>
       <c r="D21">
-        <v>-0.1780511864271803</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.158950754943333</v>
+      </c>
+      <c r="E21">
+        <v>-0.03043872909068064</v>
+      </c>
+      <c r="F21">
+        <v>0.06719433345298947</v>
+      </c>
+      <c r="G21">
+        <v>-0.09086432625420385</v>
+      </c>
+      <c r="H21">
+        <v>0.09070596721771941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002205109530502582</v>
+        <v>0.002151908713304797</v>
       </c>
       <c r="C22">
-        <v>0.05048602415295266</v>
+        <v>-0.05936702087457191</v>
       </c>
       <c r="D22">
-        <v>-0.1523842493596923</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.21414523559985</v>
+      </c>
+      <c r="E22">
+        <v>0.04257400301231457</v>
+      </c>
+      <c r="F22">
+        <v>0.03482337933666452</v>
+      </c>
+      <c r="G22">
+        <v>0.01216180290985634</v>
+      </c>
+      <c r="H22">
+        <v>-0.4740392302725218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.002379514227739115</v>
+        <v>0.002627293045137396</v>
       </c>
       <c r="C23">
-        <v>0.0508191809730451</v>
+        <v>-0.05976452938949867</v>
       </c>
       <c r="D23">
-        <v>-0.1519194013990124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.214348376347638</v>
+      </c>
+      <c r="E23">
+        <v>0.04015686697055083</v>
+      </c>
+      <c r="F23">
+        <v>0.03348185926811715</v>
+      </c>
+      <c r="G23">
+        <v>0.01392178103364546</v>
+      </c>
+      <c r="H23">
+        <v>-0.4740529586848573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03555240373479466</v>
+        <v>0.02397535937550497</v>
       </c>
       <c r="C24">
-        <v>0.05738615578681377</v>
+        <v>-0.06326444953451875</v>
       </c>
       <c r="D24">
-        <v>-0.07389862324187108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05922321612497001</v>
+      </c>
+      <c r="E24">
+        <v>0.01577424919281264</v>
+      </c>
+      <c r="F24">
+        <v>0.0006578711741505492</v>
+      </c>
+      <c r="G24">
+        <v>-0.04582532835015662</v>
+      </c>
+      <c r="H24">
+        <v>0.06345172830487304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04056853309419869</v>
+        <v>0.02936110527182039</v>
       </c>
       <c r="C25">
-        <v>0.0515316384131008</v>
+        <v>-0.0608956277765445</v>
       </c>
       <c r="D25">
-        <v>-0.07401256122746146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06148962940493226</v>
+      </c>
+      <c r="E25">
+        <v>0.00653627255306747</v>
+      </c>
+      <c r="F25">
+        <v>-0.007019115734119441</v>
+      </c>
+      <c r="G25">
+        <v>-0.02298440899341916</v>
+      </c>
+      <c r="H25">
+        <v>0.04279640917092292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01317341295694785</v>
+        <v>0.01119753055689027</v>
       </c>
       <c r="C26">
-        <v>0.01513263948357456</v>
+        <v>-0.02380076804970018</v>
       </c>
       <c r="D26">
-        <v>-0.08107744135565766</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07246812280302516</v>
+      </c>
+      <c r="E26">
+        <v>0.00997723993504292</v>
+      </c>
+      <c r="F26">
+        <v>0.02322577996837906</v>
+      </c>
+      <c r="G26">
+        <v>-0.05102008150817951</v>
+      </c>
+      <c r="H26">
+        <v>0.05226767794998093</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1978490546872225</v>
+        <v>0.2666307356449265</v>
       </c>
       <c r="C28">
-        <v>-0.246589679888029</v>
+        <v>0.2038266097689884</v>
       </c>
       <c r="D28">
-        <v>-0.004907417478924513</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.002179809953119787</v>
+      </c>
+      <c r="E28">
+        <v>-0.05767343503191912</v>
+      </c>
+      <c r="F28">
+        <v>0.04890486060147506</v>
+      </c>
+      <c r="G28">
+        <v>0.04511009892819697</v>
+      </c>
+      <c r="H28">
+        <v>-0.03711363113257534</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.002307741561543918</v>
+        <v>0.002890683435329001</v>
       </c>
       <c r="C29">
-        <v>0.02380314243781156</v>
+        <v>-0.02811698179127901</v>
       </c>
       <c r="D29">
-        <v>-0.1070272936645617</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1060402255708645</v>
+      </c>
+      <c r="E29">
+        <v>0.02596383222259549</v>
+      </c>
+      <c r="F29">
+        <v>0.03292032771878264</v>
+      </c>
+      <c r="G29">
+        <v>-0.07420305548465521</v>
+      </c>
+      <c r="H29">
+        <v>0.07009114527009097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02910991216659522</v>
+        <v>0.02577678286307801</v>
       </c>
       <c r="C30">
-        <v>0.0645776744937282</v>
+        <v>-0.07798908204561616</v>
       </c>
       <c r="D30">
-        <v>-0.1706748831302822</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1688228546709821</v>
+      </c>
+      <c r="E30">
+        <v>0.028066917434429</v>
+      </c>
+      <c r="F30">
+        <v>0.03893829370157458</v>
+      </c>
+      <c r="G30">
+        <v>-0.04629282005789004</v>
+      </c>
+      <c r="H30">
+        <v>0.02386606801109831</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05434933071518266</v>
+        <v>0.03583070356202967</v>
       </c>
       <c r="C31">
-        <v>0.07695562491216153</v>
+        <v>-0.08510543258435244</v>
       </c>
       <c r="D31">
-        <v>-0.07036197934522244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04820777547644838</v>
+      </c>
+      <c r="E31">
+        <v>0.003986863967220375</v>
+      </c>
+      <c r="F31">
+        <v>0.02108670096011412</v>
+      </c>
+      <c r="G31">
+        <v>-0.02114394109329124</v>
+      </c>
+      <c r="H31">
+        <v>0.01596163286708754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02606739600781265</v>
+        <v>0.02287137955080863</v>
       </c>
       <c r="C32">
-        <v>0.02744324967585832</v>
+        <v>-0.03421394126438913</v>
       </c>
       <c r="D32">
-        <v>-0.1166932687125272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1281667068896714</v>
+      </c>
+      <c r="E32">
+        <v>-0.008914782324612423</v>
+      </c>
+      <c r="F32">
+        <v>0.04856984070450215</v>
+      </c>
+      <c r="G32">
+        <v>-0.04238085249929074</v>
+      </c>
+      <c r="H32">
+        <v>0.01004215981332356</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02154387851473842</v>
+        <v>0.01975408200733427</v>
       </c>
       <c r="C33">
-        <v>0.04392367113352297</v>
+        <v>-0.05136984530826263</v>
       </c>
       <c r="D33">
-        <v>-0.1617643687230487</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1427921488920614</v>
+      </c>
+      <c r="E33">
+        <v>0.001607727856831941</v>
+      </c>
+      <c r="F33">
+        <v>0.02841667680712552</v>
+      </c>
+      <c r="G33">
+        <v>-0.04418783468790175</v>
+      </c>
+      <c r="H33">
+        <v>0.04150652475040063</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03422599071728715</v>
+        <v>0.02207205790176245</v>
       </c>
       <c r="C34">
-        <v>0.06248202202888007</v>
+        <v>-0.06536771317395264</v>
       </c>
       <c r="D34">
-        <v>-0.07005139079980909</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0488258333937567</v>
+      </c>
+      <c r="E34">
+        <v>0.03043922180818645</v>
+      </c>
+      <c r="F34">
+        <v>-0.02420559991501258</v>
+      </c>
+      <c r="G34">
+        <v>-0.04114910449854255</v>
+      </c>
+      <c r="H34">
+        <v>0.05110228242308044</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.00119735048451316</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002609260502419128</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01153471976147041</v>
+      </c>
+      <c r="E35">
+        <v>0.001422114123988008</v>
+      </c>
+      <c r="F35">
+        <v>-0.0009444492042091637</v>
+      </c>
+      <c r="G35">
+        <v>-0.001886690297640501</v>
+      </c>
+      <c r="H35">
+        <v>0.003794754334365681</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01787057818028604</v>
+        <v>0.01637730114113178</v>
       </c>
       <c r="C36">
-        <v>0.007321454002308178</v>
+        <v>-0.01920013061783904</v>
       </c>
       <c r="D36">
-        <v>-0.1008159539750592</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08606087408436837</v>
+      </c>
+      <c r="E36">
+        <v>0.0003324031457889602</v>
+      </c>
+      <c r="F36">
+        <v>0.02528068972487675</v>
+      </c>
+      <c r="G36">
+        <v>-0.03345594685611319</v>
+      </c>
+      <c r="H36">
+        <v>0.04788838518142568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01889504041617262</v>
+        <v>0.0227830109268503</v>
       </c>
       <c r="C38">
-        <v>0.01618460011770394</v>
+        <v>-0.02144331609032233</v>
       </c>
       <c r="D38">
-        <v>-0.0942186253110209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08759848277661192</v>
+      </c>
+      <c r="E38">
+        <v>-0.01474773523863039</v>
+      </c>
+      <c r="F38">
+        <v>-0.02289132880968402</v>
+      </c>
+      <c r="G38">
+        <v>-0.04082175555518337</v>
+      </c>
+      <c r="H38">
+        <v>0.0328768958725189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03681198667073081</v>
+        <v>0.02636978857376359</v>
       </c>
       <c r="C39">
-        <v>0.05841259125925959</v>
+        <v>-0.07402272032699365</v>
       </c>
       <c r="D39">
-        <v>-0.1147333494136851</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1098812079001125</v>
+      </c>
+      <c r="E39">
+        <v>0.03751239224621346</v>
+      </c>
+      <c r="F39">
+        <v>-0.00696191053765213</v>
+      </c>
+      <c r="G39">
+        <v>-0.05296569553901025</v>
+      </c>
+      <c r="H39">
+        <v>0.08277740045998914</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01565025595038656</v>
+        <v>0.009618717235156123</v>
       </c>
       <c r="C40">
-        <v>0.04427657283413333</v>
+        <v>-0.04155489117505487</v>
       </c>
       <c r="D40">
-        <v>-0.1187406447766711</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.1051139662262098</v>
+      </c>
+      <c r="E40">
+        <v>0.002229405061028013</v>
+      </c>
+      <c r="F40">
+        <v>0.03859856888638935</v>
+      </c>
+      <c r="G40">
+        <v>-0.2256752216043682</v>
+      </c>
+      <c r="H40">
+        <v>-0.06966887612468069</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03194236397243447</v>
+        <v>0.02859249336244634</v>
       </c>
       <c r="C41">
-        <v>0.006008504688805248</v>
+        <v>-0.01685857517326681</v>
       </c>
       <c r="D41">
-        <v>-0.09337479877657182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.06424620297636957</v>
+      </c>
+      <c r="E41">
+        <v>-0.01572495920403662</v>
+      </c>
+      <c r="F41">
+        <v>0.005340379108784264</v>
+      </c>
+      <c r="G41">
+        <v>-0.04140467461583913</v>
+      </c>
+      <c r="H41">
+        <v>0.02476611656425183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02375319805029055</v>
+        <v>0.01936025957008652</v>
       </c>
       <c r="C43">
-        <v>0.01296960959491214</v>
+        <v>-0.02088305425784085</v>
       </c>
       <c r="D43">
-        <v>-0.1145202116504812</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08235851282619643</v>
+      </c>
+      <c r="E43">
+        <v>-0.002725111255868556</v>
+      </c>
+      <c r="F43">
+        <v>0.006348027402455298</v>
+      </c>
+      <c r="G43">
+        <v>-0.0547168483747666</v>
+      </c>
+      <c r="H43">
+        <v>0.04727402349262821</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.009334541884075112</v>
+        <v>0.009724432395268798</v>
       </c>
       <c r="C44">
-        <v>0.04383570905219013</v>
+        <v>-0.04483924163756256</v>
       </c>
       <c r="D44">
-        <v>-0.105125558221503</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1150280223832728</v>
+      </c>
+      <c r="E44">
+        <v>-0.007192942817549106</v>
+      </c>
+      <c r="F44">
+        <v>0.02218243716863964</v>
+      </c>
+      <c r="G44">
+        <v>-0.0468668491480233</v>
+      </c>
+      <c r="H44">
+        <v>0.03769806498990368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01356408032516747</v>
+        <v>0.008428533383262325</v>
       </c>
       <c r="C46">
-        <v>0.02592157779145079</v>
+        <v>-0.03335247200047185</v>
       </c>
       <c r="D46">
-        <v>-0.1130463743841183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09911994694780264</v>
+      </c>
+      <c r="E46">
+        <v>0.01181060225562829</v>
+      </c>
+      <c r="F46">
+        <v>0.02396646275399373</v>
+      </c>
+      <c r="G46">
+        <v>-0.0707690702282827</v>
+      </c>
+      <c r="H46">
+        <v>0.080125912728434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.090797701003756</v>
+        <v>0.06556782799107964</v>
       </c>
       <c r="C47">
-        <v>0.08949595809485818</v>
+        <v>-0.1061937889688245</v>
       </c>
       <c r="D47">
-        <v>-0.04781854395686343</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03062758754295487</v>
+      </c>
+      <c r="E47">
+        <v>-0.01493050523786324</v>
+      </c>
+      <c r="F47">
+        <v>0.004865862730725185</v>
+      </c>
+      <c r="G47">
+        <v>0.03517794676643345</v>
+      </c>
+      <c r="H47">
+        <v>0.01771720417369579</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01199043112764266</v>
+        <v>0.01141555980286641</v>
       </c>
       <c r="C48">
-        <v>0.02048811502978488</v>
+        <v>-0.02704226827896997</v>
       </c>
       <c r="D48">
-        <v>-0.1012766582581043</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.09174777950623152</v>
+      </c>
+      <c r="E48">
+        <v>-0.02009858182553061</v>
+      </c>
+      <c r="F48">
+        <v>0.02985899914821956</v>
+      </c>
+      <c r="G48">
+        <v>-0.05110881613907579</v>
+      </c>
+      <c r="H48">
+        <v>0.05899182137982558</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04986723562591464</v>
+        <v>0.03425492343133842</v>
       </c>
       <c r="C50">
-        <v>0.0611713692077373</v>
+        <v>-0.07206936389350301</v>
       </c>
       <c r="D50">
-        <v>-0.07513523687380971</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05992829904172879</v>
+      </c>
+      <c r="E50">
+        <v>-0.0007215571195331968</v>
+      </c>
+      <c r="F50">
+        <v>0.01145012985174809</v>
+      </c>
+      <c r="G50">
+        <v>-0.02894399041308802</v>
+      </c>
+      <c r="H50">
+        <v>-0.005447261457780346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.007167694241267987</v>
+        <v>0.006430119478839845</v>
       </c>
       <c r="C51">
-        <v>0.01123760403291293</v>
+        <v>-0.01788660476539536</v>
       </c>
       <c r="D51">
-        <v>-0.07821931641359547</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08365946775334639</v>
+      </c>
+      <c r="E51">
+        <v>0.01908365571914302</v>
+      </c>
+      <c r="F51">
+        <v>0.03682104484734938</v>
+      </c>
+      <c r="G51">
+        <v>-0.07090962080758026</v>
+      </c>
+      <c r="H51">
+        <v>0.02518815597759128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1054575933610066</v>
+        <v>0.08433552992239289</v>
       </c>
       <c r="C53">
-        <v>0.1103790806627352</v>
+        <v>-0.1309392219885472</v>
       </c>
       <c r="D53">
-        <v>-0.01341157720571711</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.007548079362479427</v>
+      </c>
+      <c r="E53">
+        <v>-0.05761131984635684</v>
+      </c>
+      <c r="F53">
+        <v>0.07747902657956474</v>
+      </c>
+      <c r="G53">
+        <v>-0.01619029003676244</v>
+      </c>
+      <c r="H53">
+        <v>-0.0222421252915062</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01808004915458672</v>
+        <v>0.01484811527569683</v>
       </c>
       <c r="C54">
-        <v>0.02686000158101547</v>
+        <v>-0.03546159497214817</v>
       </c>
       <c r="D54">
-        <v>-0.1247691162637678</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.1012703414224114</v>
+      </c>
+      <c r="E54">
+        <v>-0.0007515265265967438</v>
+      </c>
+      <c r="F54">
+        <v>0.006889684378612601</v>
+      </c>
+      <c r="G54">
+        <v>-0.07911415702892963</v>
+      </c>
+      <c r="H54">
+        <v>0.03954652028948722</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09666619095373635</v>
+        <v>0.07470785005105236</v>
       </c>
       <c r="C55">
-        <v>0.08557331584408338</v>
+        <v>-0.1051500383467778</v>
       </c>
       <c r="D55">
-        <v>0.005724185837197003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01227881588396508</v>
+      </c>
+      <c r="E55">
+        <v>-0.01724318801979713</v>
+      </c>
+      <c r="F55">
+        <v>0.04359562328463915</v>
+      </c>
+      <c r="G55">
+        <v>-0.01782656276626816</v>
+      </c>
+      <c r="H55">
+        <v>-0.0425002462048743</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1334822725093164</v>
+        <v>0.1029355573227876</v>
       </c>
       <c r="C56">
-        <v>0.1168749925056169</v>
+        <v>-0.1523349945746479</v>
       </c>
       <c r="D56">
-        <v>0.009324111035942021</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01544153051608818</v>
+      </c>
+      <c r="E56">
+        <v>-0.04622480795989319</v>
+      </c>
+      <c r="F56">
+        <v>0.03976578628919144</v>
+      </c>
+      <c r="G56">
+        <v>-0.01358322561233989</v>
+      </c>
+      <c r="H56">
+        <v>-0.06780844277621878</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.01038976549353587</v>
+        <v>-0.001818539659091278</v>
       </c>
       <c r="C58">
-        <v>0.03905651347147327</v>
+        <v>-0.05234136335675231</v>
       </c>
       <c r="D58">
-        <v>-0.2251869947758841</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2848167224221167</v>
+      </c>
+      <c r="E58">
+        <v>-0.04109715829881688</v>
+      </c>
+      <c r="F58">
+        <v>0.07674845520162893</v>
+      </c>
+      <c r="G58">
+        <v>-0.02289908513254047</v>
+      </c>
+      <c r="H58">
+        <v>-0.1510281314787187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1513402759953177</v>
+        <v>0.2048542554009736</v>
       </c>
       <c r="C59">
-        <v>-0.168406597644677</v>
+        <v>0.1348578840431482</v>
       </c>
       <c r="D59">
-        <v>-0.0526006148158811</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06499080599146136</v>
+      </c>
+      <c r="E59">
+        <v>-0.04212513894027702</v>
+      </c>
+      <c r="F59">
+        <v>0.005792233635410747</v>
+      </c>
+      <c r="G59">
+        <v>0.01265605297625975</v>
+      </c>
+      <c r="H59">
+        <v>-0.01784172237461113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2356268241800318</v>
+        <v>0.2054129506558387</v>
       </c>
       <c r="C60">
-        <v>0.07814181256869682</v>
+        <v>-0.1360484615562539</v>
       </c>
       <c r="D60">
-        <v>-0.116882808208679</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.06480375077322641</v>
+      </c>
+      <c r="E60">
+        <v>0.3015688789725847</v>
+      </c>
+      <c r="F60">
+        <v>-0.1454767673851547</v>
+      </c>
+      <c r="G60">
+        <v>0.2832222761496568</v>
+      </c>
+      <c r="H60">
+        <v>-0.03968634546801775</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04005062062154568</v>
+        <v>0.02904438963334632</v>
       </c>
       <c r="C61">
-        <v>0.05523765662398933</v>
+        <v>-0.06774260918490503</v>
       </c>
       <c r="D61">
-        <v>-0.1140933602514713</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09217401178321179</v>
+      </c>
+      <c r="E61">
+        <v>0.02599457313266971</v>
+      </c>
+      <c r="F61">
+        <v>-0.008330224224164535</v>
+      </c>
+      <c r="G61">
+        <v>-0.03530318352398458</v>
+      </c>
+      <c r="H61">
+        <v>0.07964192514139853</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01399298052666323</v>
+        <v>0.0103034981595923</v>
       </c>
       <c r="C63">
-        <v>0.02572005483203949</v>
+        <v>-0.0346188163241147</v>
       </c>
       <c r="D63">
-        <v>-0.09446917454596261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07797362794224953</v>
+      </c>
+      <c r="E63">
+        <v>0.01848033480542274</v>
+      </c>
+      <c r="F63">
+        <v>0.02157814264338967</v>
+      </c>
+      <c r="G63">
+        <v>-0.04146102471538526</v>
+      </c>
+      <c r="H63">
+        <v>0.03991373145711295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05429573505752951</v>
+        <v>0.03659129978204168</v>
       </c>
       <c r="C64">
-        <v>0.07208832748446219</v>
+        <v>-0.0839264671572216</v>
       </c>
       <c r="D64">
-        <v>-0.05464843277598977</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05069244551879677</v>
+      </c>
+      <c r="E64">
+        <v>0.008441635950709727</v>
+      </c>
+      <c r="F64">
+        <v>0.0518740738016594</v>
+      </c>
+      <c r="G64">
+        <v>-0.01640851693269768</v>
+      </c>
+      <c r="H64">
+        <v>0.1079933672510122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02988359626817044</v>
+        <v>0.02583776947611136</v>
       </c>
       <c r="C65">
-        <v>0.02218643186560267</v>
+        <v>-0.03573935534124598</v>
       </c>
       <c r="D65">
-        <v>-0.1230668867585004</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1090974788609832</v>
+      </c>
+      <c r="E65">
+        <v>0.03129715624120416</v>
+      </c>
+      <c r="F65">
+        <v>0.02177534607703022</v>
+      </c>
+      <c r="G65">
+        <v>-0.02244210692231207</v>
+      </c>
+      <c r="H65">
+        <v>0.002173502840747739</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03902076655857328</v>
+        <v>0.02741207580951688</v>
       </c>
       <c r="C66">
-        <v>0.0680304888240566</v>
+        <v>-0.08737241476735676</v>
       </c>
       <c r="D66">
-        <v>-0.1282552525983822</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1353525957275631</v>
+      </c>
+      <c r="E66">
+        <v>0.03201973649205585</v>
+      </c>
+      <c r="F66">
+        <v>-0.01663876465717938</v>
+      </c>
+      <c r="G66">
+        <v>-0.02928846383973011</v>
+      </c>
+      <c r="H66">
+        <v>0.04875953574119168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04023709450902897</v>
+        <v>0.03825398403466523</v>
       </c>
       <c r="C67">
-        <v>0.02256268867605512</v>
+        <v>-0.0308322510764972</v>
       </c>
       <c r="D67">
-        <v>-0.05075975511775296</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03760934142296025</v>
+      </c>
+      <c r="E67">
+        <v>0.0003999516690017364</v>
+      </c>
+      <c r="F67">
+        <v>-0.03569936039251528</v>
+      </c>
+      <c r="G67">
+        <v>-0.04206034304583926</v>
+      </c>
+      <c r="H67">
+        <v>0.04450989322030904</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1856343944931156</v>
+        <v>0.2358898630717327</v>
       </c>
       <c r="C68">
-        <v>-0.197690582017455</v>
+        <v>0.1505826874990078</v>
       </c>
       <c r="D68">
-        <v>-0.02327248780664087</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03009946234139909</v>
+      </c>
+      <c r="E68">
+        <v>-0.00713743935288662</v>
+      </c>
+      <c r="F68">
+        <v>0.03230233143949371</v>
+      </c>
+      <c r="G68">
+        <v>-0.02242918488253486</v>
+      </c>
+      <c r="H68">
+        <v>-0.06593041774036688</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08311690044590554</v>
+        <v>0.0577536440507275</v>
       </c>
       <c r="C69">
-        <v>0.1039503186178585</v>
+        <v>-0.1115764924463431</v>
       </c>
       <c r="D69">
-        <v>-0.0745462537426439</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0412023368607835</v>
+      </c>
+      <c r="E69">
+        <v>0.009510847374688967</v>
+      </c>
+      <c r="F69">
+        <v>-0.002750917867153303</v>
+      </c>
+      <c r="G69">
+        <v>0.01384392097075057</v>
+      </c>
+      <c r="H69">
+        <v>0.02155746857451752</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1743963073567392</v>
+        <v>0.2247178399514604</v>
       </c>
       <c r="C71">
-        <v>-0.2055265703631187</v>
+        <v>0.1609292580884686</v>
       </c>
       <c r="D71">
-        <v>-0.03007825179632992</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0307888377063559</v>
+      </c>
+      <c r="E71">
+        <v>-0.01898189573974669</v>
+      </c>
+      <c r="F71">
+        <v>0.04462883457792249</v>
+      </c>
+      <c r="G71">
+        <v>-0.04152381906150432</v>
+      </c>
+      <c r="H71">
+        <v>-0.04688514030231936</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1096637545934377</v>
+        <v>0.08761426494690995</v>
       </c>
       <c r="C72">
-        <v>0.06445025854739329</v>
+        <v>-0.09986078473641645</v>
       </c>
       <c r="D72">
-        <v>-0.07944470987735129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07267143307758804</v>
+      </c>
+      <c r="E72">
+        <v>0.07259682346064869</v>
+      </c>
+      <c r="F72">
+        <v>0.01576016337607059</v>
+      </c>
+      <c r="G72">
+        <v>-0.02140275730769308</v>
+      </c>
+      <c r="H72">
+        <v>0.03939913291067172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2055445677894171</v>
+        <v>0.1803969336016819</v>
       </c>
       <c r="C73">
-        <v>0.03131859663263898</v>
+        <v>-0.1002414118760546</v>
       </c>
       <c r="D73">
-        <v>-0.1541167531295168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.05888425582263682</v>
+      </c>
+      <c r="E73">
+        <v>0.4927631673525169</v>
+      </c>
+      <c r="F73">
+        <v>-0.1996172559611426</v>
+      </c>
+      <c r="G73">
+        <v>0.3608539238635769</v>
+      </c>
+      <c r="H73">
+        <v>0.09807409425070945</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1094493977976225</v>
+        <v>0.08181493886780798</v>
       </c>
       <c r="C74">
-        <v>0.09140530365975195</v>
+        <v>-0.1168217321470473</v>
       </c>
       <c r="D74">
-        <v>0.0242612871060516</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03073577743737661</v>
+      </c>
+      <c r="E74">
+        <v>-0.02822951086087007</v>
+      </c>
+      <c r="F74">
+        <v>0.06689649819277611</v>
+      </c>
+      <c r="G74">
+        <v>0.01484166981141285</v>
+      </c>
+      <c r="H74">
+        <v>-0.0311411843146446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2564597235586887</v>
+        <v>0.1998413226387842</v>
       </c>
       <c r="C75">
-        <v>0.1611269689848328</v>
+        <v>-0.2180350337444325</v>
       </c>
       <c r="D75">
-        <v>0.108362065516235</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1263561441741156</v>
+      </c>
+      <c r="E75">
+        <v>-0.09792466342374463</v>
+      </c>
+      <c r="F75">
+        <v>-0.003449634657621379</v>
+      </c>
+      <c r="G75">
+        <v>-0.0295233178987083</v>
+      </c>
+      <c r="H75">
+        <v>-0.0638079726602666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1457642697719206</v>
+        <v>0.1092354097430644</v>
       </c>
       <c r="C76">
-        <v>0.1217945943811217</v>
+        <v>-0.1525463992755801</v>
       </c>
       <c r="D76">
-        <v>-0.001985802942534811</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01755685770232793</v>
+      </c>
+      <c r="E76">
+        <v>-0.0484298243025242</v>
+      </c>
+      <c r="F76">
+        <v>0.03142005898449263</v>
+      </c>
+      <c r="G76">
+        <v>-0.04739894856145381</v>
+      </c>
+      <c r="H76">
+        <v>-0.02157353597255265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04277918921085881</v>
+        <v>0.04847269711428909</v>
       </c>
       <c r="C77">
-        <v>0.07662551666449403</v>
+        <v>-0.08329126358348773</v>
       </c>
       <c r="D77">
-        <v>-0.06466765959083068</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.2098887512962657</v>
+      </c>
+      <c r="E77">
+        <v>-0.6313766638160644</v>
+      </c>
+      <c r="F77">
+        <v>-0.4550952578887649</v>
+      </c>
+      <c r="G77">
+        <v>0.4268090138695104</v>
+      </c>
+      <c r="H77">
+        <v>-0.1398720811424525</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04049241208339249</v>
+        <v>0.03453415192582063</v>
       </c>
       <c r="C78">
-        <v>0.06383579222796106</v>
+        <v>-0.07638185878762499</v>
       </c>
       <c r="D78">
-        <v>-0.1512325538401892</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1423647393508978</v>
+      </c>
+      <c r="E78">
+        <v>0.02468120575970826</v>
+      </c>
+      <c r="F78">
+        <v>0.02710892255040551</v>
+      </c>
+      <c r="G78">
+        <v>0.01702581462313144</v>
+      </c>
+      <c r="H78">
+        <v>0.01156507028434226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.06307072127147849</v>
+        <v>0.05086332880779339</v>
       </c>
       <c r="C79">
-        <v>0.1102326963548613</v>
+        <v>-0.1244923800771118</v>
       </c>
       <c r="D79">
-        <v>0.116613427405387</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04454105414336921</v>
+      </c>
+      <c r="E79">
+        <v>-0.1920843644340654</v>
+      </c>
+      <c r="F79">
+        <v>0.7304210756191721</v>
+      </c>
+      <c r="G79">
+        <v>0.4904546442327324</v>
+      </c>
+      <c r="H79">
+        <v>0.1518207402333158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.01928188409472569</v>
+        <v>0.01479801852497472</v>
       </c>
       <c r="C80">
-        <v>0.04795673677278761</v>
+        <v>-0.04934639624473253</v>
       </c>
       <c r="D80">
-        <v>-0.03049209190083282</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03220493898276863</v>
+      </c>
+      <c r="E80">
+        <v>0.004336003113678957</v>
+      </c>
+      <c r="F80">
+        <v>0.01977430090686975</v>
+      </c>
+      <c r="G80">
+        <v>-0.06514407816694036</v>
+      </c>
+      <c r="H80">
+        <v>-0.02209544936856225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1326948770215736</v>
+        <v>0.09544807526636097</v>
       </c>
       <c r="C81">
-        <v>0.1248462757328468</v>
+        <v>-0.1479586884521944</v>
       </c>
       <c r="D81">
-        <v>0.08181307705349972</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.08485336835487209</v>
+      </c>
+      <c r="E81">
+        <v>-0.09097023426842116</v>
+      </c>
+      <c r="F81">
+        <v>0.05864248026240187</v>
+      </c>
+      <c r="G81">
+        <v>-0.07177859637423352</v>
+      </c>
+      <c r="H81">
+        <v>-0.005501307534675162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2623505646985624</v>
+        <v>0.1829721687351322</v>
       </c>
       <c r="C82">
-        <v>0.2532231132251721</v>
+        <v>-0.2817408302745842</v>
       </c>
       <c r="D82">
-        <v>0.233096535864885</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2289820062729142</v>
+      </c>
+      <c r="E82">
+        <v>-0.04061785717600611</v>
+      </c>
+      <c r="F82">
+        <v>-0.06954423074295318</v>
+      </c>
+      <c r="G82">
+        <v>-0.06931159069244011</v>
+      </c>
+      <c r="H82">
+        <v>-0.005318538775116595</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.024124966803782</v>
+        <v>0.01258789384450031</v>
       </c>
       <c r="C83">
-        <v>0.05942836624816607</v>
+        <v>-0.05577906550710161</v>
       </c>
       <c r="D83">
-        <v>-0.04500765765345036</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05407003499769784</v>
+      </c>
+      <c r="E83">
+        <v>-0.08003534848346938</v>
+      </c>
+      <c r="F83">
+        <v>-0.05031577333149666</v>
+      </c>
+      <c r="G83">
+        <v>-0.01278593523565689</v>
+      </c>
+      <c r="H83">
+        <v>0.01775111448618713</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0005299676954831211</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.009283014465407738</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02903605203606036</v>
+      </c>
+      <c r="E84">
+        <v>-0.005877238453826565</v>
+      </c>
+      <c r="F84">
+        <v>0.01804036309971967</v>
+      </c>
+      <c r="G84">
+        <v>-0.02839480001834095</v>
+      </c>
+      <c r="H84">
+        <v>-0.02150410408448072</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1677567934263781</v>
+        <v>0.1255479246957152</v>
       </c>
       <c r="C85">
-        <v>0.1276147551852469</v>
+        <v>-0.1706349768997289</v>
       </c>
       <c r="D85">
-        <v>0.06392839481949653</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08659264101370506</v>
+      </c>
+      <c r="E85">
+        <v>-0.01472283459309335</v>
+      </c>
+      <c r="F85">
+        <v>0.09007912995280841</v>
+      </c>
+      <c r="G85">
+        <v>-0.01174562112225591</v>
+      </c>
+      <c r="H85">
+        <v>-0.01720549183856095</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01654648209227149</v>
+        <v>0.01493239640212457</v>
       </c>
       <c r="C86">
-        <v>0.0294035666006531</v>
+        <v>-0.0307412091554251</v>
       </c>
       <c r="D86">
-        <v>-0.1022741273581185</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1098319361422285</v>
+      </c>
+      <c r="E86">
+        <v>-0.04596061263830429</v>
+      </c>
+      <c r="F86">
+        <v>-0.02141666321527697</v>
+      </c>
+      <c r="G86">
+        <v>-0.01924791510474009</v>
+      </c>
+      <c r="H86">
+        <v>-0.001859589801958</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02801210759359311</v>
+        <v>0.02835780533540239</v>
       </c>
       <c r="C87">
-        <v>0.02524577549146828</v>
+        <v>-0.04140576300920006</v>
       </c>
       <c r="D87">
-        <v>-0.1319116891648883</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1489586930444269</v>
+      </c>
+      <c r="E87">
+        <v>-0.01939724527962302</v>
+      </c>
+      <c r="F87">
+        <v>0.0296296398717052</v>
+      </c>
+      <c r="G87">
+        <v>-0.05409645496235207</v>
+      </c>
+      <c r="H87">
+        <v>0.002416103535442659</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.06808791116085856</v>
+        <v>0.05314088175027211</v>
       </c>
       <c r="C88">
-        <v>0.04761190024527447</v>
+        <v>-0.06434819499938393</v>
       </c>
       <c r="D88">
-        <v>-0.06113892131767967</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02654186845528946</v>
+      </c>
+      <c r="E88">
+        <v>0.02058903195703243</v>
+      </c>
+      <c r="F88">
+        <v>0.02969757392172955</v>
+      </c>
+      <c r="G88">
+        <v>-0.01591360975636949</v>
+      </c>
+      <c r="H88">
+        <v>0.0314228896460197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2803178673456539</v>
+        <v>0.3536544171100184</v>
       </c>
       <c r="C89">
-        <v>-0.3694715231728998</v>
+        <v>0.2781652446545628</v>
       </c>
       <c r="D89">
-        <v>-0.01400269770808482</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0202137511601469</v>
+      </c>
+      <c r="E89">
+        <v>-0.04611750034962001</v>
+      </c>
+      <c r="F89">
+        <v>0.009203580004026303</v>
+      </c>
+      <c r="G89">
+        <v>-0.08984948906529862</v>
+      </c>
+      <c r="H89">
+        <v>0.1441875939839717</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.226809833277692</v>
+        <v>0.2794768192386488</v>
       </c>
       <c r="C90">
-        <v>-0.2719293899742372</v>
+        <v>0.197333447671114</v>
       </c>
       <c r="D90">
-        <v>-0.03697179025687333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.04354232290674391</v>
+      </c>
+      <c r="E90">
+        <v>-0.0165525518158006</v>
+      </c>
+      <c r="F90">
+        <v>-0.01030317539741955</v>
+      </c>
+      <c r="G90">
+        <v>-0.04619320279058071</v>
+      </c>
+      <c r="H90">
+        <v>-0.0564558195830327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.17083368381203</v>
+        <v>0.1240253864358903</v>
       </c>
       <c r="C91">
-        <v>0.1707480763056267</v>
+        <v>-0.1916178530770455</v>
       </c>
       <c r="D91">
-        <v>0.1040674595553321</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1034996908400115</v>
+      </c>
+      <c r="E91">
+        <v>-0.09829070208724566</v>
+      </c>
+      <c r="F91">
+        <v>0.08714158042991221</v>
+      </c>
+      <c r="G91">
+        <v>0.002256758441103853</v>
+      </c>
+      <c r="H91">
+        <v>-0.01962953030259352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.191452406365611</v>
+        <v>0.2680416895947102</v>
       </c>
       <c r="C92">
-        <v>-0.2674333470150508</v>
+        <v>0.22292914336154</v>
       </c>
       <c r="D92">
-        <v>-0.02403153587434729</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03874529366464745</v>
+      </c>
+      <c r="E92">
+        <v>-0.106412766569221</v>
+      </c>
+      <c r="F92">
+        <v>0.04536462286831468</v>
+      </c>
+      <c r="G92">
+        <v>-0.0929985395954641</v>
+      </c>
+      <c r="H92">
+        <v>0.01447731029621846</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2458764888694938</v>
+        <v>0.2964905880428977</v>
       </c>
       <c r="C93">
-        <v>-0.29390831042757</v>
+        <v>0.2130615425253447</v>
       </c>
       <c r="D93">
-        <v>-0.03037440642967697</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.008397017695577057</v>
+      </c>
+      <c r="E93">
+        <v>0.03289509959684854</v>
+      </c>
+      <c r="F93">
+        <v>0.02924688309231601</v>
+      </c>
+      <c r="G93">
+        <v>0.03075289713306544</v>
+      </c>
+      <c r="H93">
+        <v>-0.005876327926505557</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3512088216008836</v>
+        <v>0.2686446711623788</v>
       </c>
       <c r="C94">
-        <v>0.221725326951513</v>
+        <v>-0.3068501808348857</v>
       </c>
       <c r="D94">
-        <v>0.3448914983130228</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3542084058010112</v>
+      </c>
+      <c r="E94">
+        <v>-0.04161848981739538</v>
+      </c>
+      <c r="F94">
+        <v>-0.1057143731225783</v>
+      </c>
+      <c r="G94">
+        <v>-0.2889559123500218</v>
+      </c>
+      <c r="H94">
+        <v>-0.1410222789664779</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06929028431530372</v>
+        <v>0.05905886828524597</v>
       </c>
       <c r="C95">
-        <v>0.04710194755882335</v>
+        <v>-0.06969916524554116</v>
       </c>
       <c r="D95">
-        <v>-0.09442216599110431</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09463070705508718</v>
+      </c>
+      <c r="E95">
+        <v>-0.1941599758104223</v>
+      </c>
+      <c r="F95">
+        <v>-0.2546991632180657</v>
+      </c>
+      <c r="G95">
+        <v>0.002773321079394954</v>
+      </c>
+      <c r="H95">
+        <v>0.5339567390876174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>4.785900523440571e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>5.848664611545978e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0005013254129986816</v>
+      </c>
+      <c r="E97">
+        <v>0.0001033064064256679</v>
+      </c>
+      <c r="F97">
+        <v>-0.0005290331732909967</v>
+      </c>
+      <c r="G97">
+        <v>0.0001618443391260398</v>
+      </c>
+      <c r="H97">
+        <v>0.0004870544927342067</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1721557803299498</v>
+        <v>0.1530053312170469</v>
       </c>
       <c r="C98">
-        <v>0.05568287210622117</v>
+        <v>-0.1057975639207142</v>
       </c>
       <c r="D98">
-        <v>-0.09330404892382539</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05114330806598148</v>
+      </c>
+      <c r="E98">
+        <v>0.3027848259272574</v>
+      </c>
+      <c r="F98">
+        <v>-0.1151968156807114</v>
+      </c>
+      <c r="G98">
+        <v>0.2191102639648388</v>
+      </c>
+      <c r="H98">
+        <v>0.02053815923491184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002606065685842215</v>
+        <v>0.003136478058122936</v>
       </c>
       <c r="C101">
-        <v>0.02332742981560874</v>
+        <v>-0.0275445748495812</v>
       </c>
       <c r="D101">
-        <v>-0.1074099476678159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1058032066315083</v>
+      </c>
+      <c r="E101">
+        <v>0.02475101446071561</v>
+      </c>
+      <c r="F101">
+        <v>0.03289241940941029</v>
+      </c>
+      <c r="G101">
+        <v>-0.07448009519031035</v>
+      </c>
+      <c r="H101">
+        <v>0.07087771241287334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1223374647363717</v>
+        <v>0.08163043198205153</v>
       </c>
       <c r="C102">
-        <v>0.132681429802472</v>
+        <v>-0.1389846081173798</v>
       </c>
       <c r="D102">
-        <v>0.08235350655253525</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.09082053444688452</v>
+      </c>
+      <c r="E102">
+        <v>-0.03689584516780618</v>
+      </c>
+      <c r="F102">
+        <v>-0.0480861969932106</v>
+      </c>
+      <c r="G102">
+        <v>-0.01641170176855148</v>
+      </c>
+      <c r="H102">
+        <v>0.03698591131448344</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
